--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2615.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2615.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7857751449763239</v>
+        <v>1.302565217018127</v>
       </c>
       <c r="B1">
-        <v>1.581490719386903</v>
+        <v>2.201034545898438</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.773584365844727</v>
       </c>
       <c r="D1">
-        <v>1.788858370072014</v>
+        <v>3.188839435577393</v>
       </c>
       <c r="E1">
-        <v>0.918726160326403</v>
+        <v>1.332236647605896</v>
       </c>
     </row>
   </sheetData>
